--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2078.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2078.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158250195891337</v>
+        <v>1.500856280326843</v>
       </c>
       <c r="B1">
-        <v>3.569498647104043</v>
+        <v>3.779188632965088</v>
       </c>
       <c r="C1">
-        <v>3.773118142903727</v>
+        <v>3.32874870300293</v>
       </c>
       <c r="D1">
-        <v>3.475789093703291</v>
+        <v>3.593692779541016</v>
       </c>
       <c r="E1">
-        <v>1.183707715545879</v>
+        <v>1.370967149734497</v>
       </c>
     </row>
   </sheetData>
